--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1712923381" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1712923381" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1712923381" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1712923381"/>
+      <pm:revision xmlns:pm="smNativeData" day="1712924275" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1712924275" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1712924275" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1712924275"/>
     </ext>
   </extLst>
 </workbook>
@@ -71,7 +71,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712923381" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712924275" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -86,7 +86,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712923381" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712924275" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -102,7 +102,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1712923381" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1712924275" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -124,7 +124,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1712923381" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1712924275" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -146,7 +146,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712923381"/>
+          <pm:border xmlns:pm="smNativeData" id="1712924275"/>
         </ext>
       </extLst>
     </border>
@@ -165,7 +165,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1712923381"/>
+          <pm:border xmlns:pm="smNativeData" id="1712924275"/>
         </ext>
       </extLst>
     </border>
@@ -183,7 +183,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1712923381" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1712924275" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -507,7 +507,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1712923381" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1712924275" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -516,16 +516,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1712923381" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1712923381" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712923381" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1712923381" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1712924275" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1712924275" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712924275" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1712924275" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712923381" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1712924275" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
